--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>8.943887251193777</v>
+        <v>16.86391779445866</v>
       </c>
       <c r="R2">
-        <v>80.494985260744</v>
+        <v>151.775260150128</v>
       </c>
       <c r="S2">
-        <v>0.1838387303386603</v>
+        <v>0.2491744798903061</v>
       </c>
       <c r="T2">
-        <v>0.1838387303386603</v>
+        <v>0.2491744798903061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>13.20427554862055</v>
+        <v>22.85473933534666</v>
       </c>
       <c r="R3">
-        <v>118.838479937585</v>
+        <v>205.69265401812</v>
       </c>
       <c r="S3">
-        <v>0.2714096436732493</v>
+        <v>0.3376924541689116</v>
       </c>
       <c r="T3">
-        <v>0.2714096436732493</v>
+        <v>0.3376924541689116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H4">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>0.5542264909172222</v>
+        <v>0.05260644065599999</v>
       </c>
       <c r="R4">
-        <v>4.988038418255</v>
+        <v>0.473457965904</v>
       </c>
       <c r="S4">
-        <v>0.01139194754458401</v>
+        <v>0.0007772916500841984</v>
       </c>
       <c r="T4">
-        <v>0.01139194754458401</v>
+        <v>0.0007772916500841985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H5">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>0.05113494352188889</v>
+        <v>0.773256625344</v>
       </c>
       <c r="R5">
-        <v>0.460214491697</v>
+        <v>6.959309628096</v>
       </c>
       <c r="S5">
-        <v>0.001051062343361766</v>
+        <v>0.01142532949876784</v>
       </c>
       <c r="T5">
-        <v>0.001051062343361766</v>
+        <v>0.01142532949876784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>3.060777</v>
       </c>
       <c r="I6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>7.998827839309333</v>
+        <v>8.713583885212666</v>
       </c>
       <c r="R6">
-        <v>71.989450553784</v>
+        <v>78.422254966914</v>
       </c>
       <c r="S6">
-        <v>0.1644133376099844</v>
+        <v>0.1287484177189157</v>
       </c>
       <c r="T6">
-        <v>0.1644133376099844</v>
+        <v>0.1287484177189157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -856,10 +856,10 @@
         <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>11.80904050888167</v>
@@ -886,10 +886,10 @@
         <v>106.281364579935</v>
       </c>
       <c r="S7">
-        <v>0.2427310354768667</v>
+        <v>0.1744856422254993</v>
       </c>
       <c r="T7">
-        <v>0.2427310354768667</v>
+        <v>0.1744856422254993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>0.4956639278116667</v>
+        <v>0.027181740278</v>
       </c>
       <c r="R8">
-        <v>4.460975350305</v>
+        <v>0.244635662502</v>
       </c>
       <c r="S8">
-        <v>0.0101882128658775</v>
+        <v>0.0004016264831716377</v>
       </c>
       <c r="T8">
-        <v>0.0101882128658775</v>
+        <v>0.0004016264831716377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.04573174932966667</v>
+        <v>0.399541586472</v>
       </c>
       <c r="R9">
-        <v>0.411585743967</v>
+        <v>3.595874278248</v>
       </c>
       <c r="S9">
-        <v>0.0009400014218436896</v>
+        <v>0.005903466099462454</v>
       </c>
       <c r="T9">
-        <v>0.0009400014218436896</v>
+        <v>0.005903466099462454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H10">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>0.5415164558106668</v>
+        <v>0.662756048294</v>
       </c>
       <c r="R10">
-        <v>4.873648102296</v>
+        <v>5.964804434646</v>
       </c>
       <c r="S10">
-        <v>0.01113069685448424</v>
+        <v>0.009792617328938606</v>
       </c>
       <c r="T10">
-        <v>0.01113069685448424</v>
+        <v>0.009792617328938607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H11">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I11">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J11">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>0.7994658581683334</v>
+        <v>0.898196783885</v>
       </c>
       <c r="R11">
-        <v>7.195192723515</v>
+        <v>8.083771054965</v>
       </c>
       <c r="S11">
-        <v>0.01643276398583366</v>
+        <v>0.01327139512843402</v>
       </c>
       <c r="T11">
-        <v>0.01643276398583366</v>
+        <v>0.01327139512843402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H12">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.03355618833833333</v>
+        <v>0.002067445842</v>
       </c>
       <c r="R12">
-        <v>0.302005695045</v>
+        <v>0.018607012578</v>
       </c>
       <c r="S12">
-        <v>0.000689736675549076</v>
+        <v>3.05477498562642E-05</v>
       </c>
       <c r="T12">
-        <v>0.000689736675549076</v>
+        <v>3.05477498562642E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1222,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H13">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N13">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q13">
-        <v>0.003096015480333334</v>
+        <v>0.030389172408</v>
       </c>
       <c r="R13">
-        <v>0.027864139323</v>
+        <v>0.273502551672</v>
       </c>
       <c r="S13">
-        <v>6.363760398895329E-05</v>
+        <v>0.0004490182128110469</v>
       </c>
       <c r="T13">
-        <v>6.363760398895329E-05</v>
+        <v>0.0004490182128110469</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H14">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I14">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J14">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N14">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q14">
-        <v>1.639249362432</v>
+        <v>1.569228382625556</v>
       </c>
       <c r="R14">
-        <v>14.753244261888</v>
+        <v>14.12305544363</v>
       </c>
       <c r="S14">
-        <v>0.03369424424013551</v>
+        <v>0.02318628866883542</v>
       </c>
       <c r="T14">
-        <v>0.03369424424013551</v>
+        <v>0.02318628866883542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H15">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I15">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J15">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>34.723655</v>
       </c>
       <c r="O15">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P15">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q15">
-        <v>2.42009985888</v>
+        <v>2.126688832313889</v>
       </c>
       <c r="R15">
-        <v>21.78089872992</v>
+        <v>19.140199490825</v>
       </c>
       <c r="S15">
-        <v>0.04974437544367372</v>
+        <v>0.03142310050007843</v>
       </c>
       <c r="T15">
-        <v>0.04974437544367373</v>
+        <v>0.03142310050007843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H16">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I16">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J16">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N16">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q16">
-        <v>0.10157948064</v>
+        <v>0.004895156676666667</v>
       </c>
       <c r="R16">
-        <v>0.9142153257600001</v>
+        <v>0.04405641009</v>
       </c>
       <c r="S16">
-        <v>0.002087933604800933</v>
+        <v>7.23288700619007E-05</v>
       </c>
       <c r="T16">
-        <v>0.002087933604800933</v>
+        <v>7.23288700619007E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.551215</v>
+      </c>
+      <c r="I17">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J17">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.391608</v>
+      </c>
+      <c r="N17">
+        <v>1.174824</v>
+      </c>
+      <c r="O17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q17">
+        <v>0.07195340124000001</v>
+      </c>
+      <c r="R17">
+        <v>0.6475806111600001</v>
+      </c>
+      <c r="S17">
+        <v>0.001063154573500519</v>
+      </c>
+      <c r="T17">
+        <v>0.001063154573500519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.209088</v>
-      </c>
-      <c r="H17">
-        <v>0.627264</v>
-      </c>
-      <c r="I17">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="J17">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.04482366666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.134471</v>
-      </c>
-      <c r="O17">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="P17">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="Q17">
-        <v>0.009372090816000002</v>
-      </c>
-      <c r="R17">
-        <v>0.08434881734400002</v>
-      </c>
-      <c r="S17">
-        <v>0.0001926403171061989</v>
-      </c>
-      <c r="T17">
-        <v>0.0001926403171061989</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.119675</v>
+      </c>
+      <c r="I18">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J18">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.540560666666666</v>
+      </c>
+      <c r="N18">
+        <v>25.621682</v>
+      </c>
+      <c r="O18">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="P18">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="Q18">
+        <v>0.3406971992611111</v>
+      </c>
+      <c r="R18">
+        <v>3.06627479335</v>
+      </c>
+      <c r="S18">
+        <v>0.005034005055092622</v>
+      </c>
+      <c r="T18">
+        <v>0.005034005055092623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.119675</v>
+      </c>
+      <c r="I19">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J19">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N19">
+        <v>34.723655</v>
+      </c>
+      <c r="O19">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="P19">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="Q19">
+        <v>0.4617281569027777</v>
+      </c>
+      <c r="R19">
+        <v>4.155553412125</v>
+      </c>
+      <c r="S19">
+        <v>0.006822309901484695</v>
+      </c>
+      <c r="T19">
+        <v>0.006822309901484696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.119675</v>
+      </c>
+      <c r="I20">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J20">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.026642</v>
+      </c>
+      <c r="N20">
+        <v>0.079926</v>
+      </c>
+      <c r="O20">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="P20">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="Q20">
+        <v>0.001062793783333333</v>
+      </c>
+      <c r="R20">
+        <v>0.00956514405</v>
+      </c>
+      <c r="S20">
+        <v>1.570341432047017E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.570341432047018E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.119675</v>
+      </c>
+      <c r="I21">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J21">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.391608</v>
+      </c>
+      <c r="N21">
+        <v>1.174824</v>
+      </c>
+      <c r="O21">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P21">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q21">
+        <v>0.0156218958</v>
+      </c>
+      <c r="R21">
+        <v>0.1405970622</v>
+      </c>
+      <c r="S21">
+        <v>0.0002308228614672579</v>
+      </c>
+      <c r="T21">
+        <v>0.0002308228614672579</v>
       </c>
     </row>
   </sheetData>
